--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="165">
   <si>
     <t>browser</t>
   </si>
@@ -458,6 +458,78 @@
   </si>
   <si>
     <t>Test Category</t>
+  </si>
+  <si>
+    <t>No_Of_Cards</t>
+  </si>
+  <si>
+    <t>Company_Type</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>21-Oct-2023</t>
+  </si>
+  <si>
+    <t>19-Dec-2023</t>
+  </si>
+  <si>
+    <t>https://test.com</t>
+  </si>
+  <si>
+    <t>Street 1</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Country_Code</t>
+  </si>
+  <si>
+    <t>BELGIUM +32</t>
+  </si>
+  <si>
+    <t>Area_Code</t>
+  </si>
+  <si>
+    <t>Britannia Industries Limited</t>
+  </si>
+  <si>
+    <t>Allow card edit/update email</t>
+  </si>
+  <si>
+    <t>Allow web login OTP</t>
+  </si>
+  <si>
+    <t>Admin_Setting_Start_Date</t>
+  </si>
+  <si>
+    <t>Admin_Setting_To_Date</t>
+  </si>
+  <si>
+    <t>19-Jul-2023</t>
+  </si>
+  <si>
+    <t>Admin_Setting_No_of_Cards</t>
+  </si>
+  <si>
+    <t>Admin_Setting_Company_Type</t>
+  </si>
+  <si>
+    <t>Demo</t>
   </si>
 </sst>
 </file>
@@ -467,7 +539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +574,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -575,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -592,7 +670,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -602,6 +679,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -936,34 +1019,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1037,64 +1120,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1169,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1213,16 +1296,16 @@
       <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>137</v>
       </c>
       <c r="G2" t="s">
@@ -1352,10 +1435,10 @@
       <c r="G1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1363,10 +1446,10 @@
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1381,10 +1464,10 @@
       <c r="G2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1514,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1525,22 +1608,29 @@
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.44140625" customWidth="1"/>
-    <col min="27" max="27" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.88671875" customWidth="1"/>
-    <col min="29" max="29" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" customWidth="1"/>
+    <col min="33" max="33" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.88671875" customWidth="1"/>
+    <col min="35" max="35" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1554,163 +1644,228 @@
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="23">
+        <v>200</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="L2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2">
+        <v>201301</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" s="22">
+        <v>10</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>12312</v>
       </c>
-      <c r="Q2">
+      <c r="W2">
         <v>82817387</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="X2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Y2" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AF2" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AG2" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AH2" t="s">
         <v>77</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AI2" t="s">
         <v>78</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AJ2" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="O2" r:id="rId2"/>
-    <hyperlink ref="R2" r:id="rId3"/>
+    <hyperlink ref="U2" r:id="rId2"/>
+    <hyperlink ref="X2" r:id="rId3"/>
+    <hyperlink ref="L2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1720,10 +1875,28 @@
       <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>46</v>
+      <c r="D1" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>51</v>
@@ -1731,12 +1904,30 @@
       <c r="C2" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="21"/>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1761,19 +1952,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>128</v>
       </c>
     </row>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital Card\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFCABD7-0FF9-4F1B-8558-2B491F90B8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -457,9 +458,6 @@
     <t>Delete_Category</t>
   </si>
   <si>
-    <t>Test Category</t>
-  </si>
-  <si>
     <t>No_Of_Cards</t>
   </si>
   <si>
@@ -530,12 +528,15 @@
   </si>
   <si>
     <t>Demo</t>
+  </si>
+  <si>
+    <t>makers test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -653,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -676,14 +677,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -972,21 +970,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
@@ -997,28 +995,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>89</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1088,38 +1086,38 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>108</v>
       </c>
@@ -1159,29 +1157,29 @@
       <c r="M1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1249,24 +1247,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1289,27 +1287,27 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" t="s">
         <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1319,24 +1317,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1347,21 +1345,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +1383,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1394,26 +1392,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1442,7 +1440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3"/>
     </row>
   </sheetData>
@@ -1481,24 +1479,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>25</v>
       </c>
@@ -1546,7 +1544,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1554,21 +1552,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1579,7 +1577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1596,41 +1594,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" customWidth="1"/>
-    <col min="23" max="23" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" customWidth="1"/>
     <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.44140625" customWidth="1"/>
-    <col min="33" max="33" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.88671875" customWidth="1"/>
-    <col min="35" max="35" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" customWidth="1"/>
+    <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.85546875" customWidth="1"/>
+    <col min="35" max="35" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1644,16 +1642,16 @@
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>66</v>
@@ -1686,10 +1684,10 @@
         <v>31</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>68</v>
@@ -1740,7 +1738,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1750,20 +1748,20 @@
       <c r="C2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="21">
         <v>200</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="I2" t="s">
         <v>84</v>
@@ -1775,30 +1773,30 @@
         <v>67</v>
       </c>
       <c r="L2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" t="s">
         <v>148</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>149</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>150</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>151</v>
       </c>
-      <c r="P2" t="s">
-        <v>152</v>
-      </c>
       <c r="Q2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R2">
         <v>201301</v>
       </c>
-      <c r="S2" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="T2" s="22">
+      <c r="S2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T2">
         <v>10</v>
       </c>
       <c r="U2" s="14" t="s">
@@ -1834,10 +1832,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="U2" r:id="rId2"/>
-    <hyperlink ref="X2" r:id="rId3"/>
-    <hyperlink ref="L2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="X2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="L2" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -1845,27 +1843,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1875,28 +1873,28 @@
       <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>156</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>51</v>
@@ -1910,24 +1908,18 @@
       <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>64</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="20"/>
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1935,23 +1927,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>85</v>
       </c>
@@ -1968,7 +1960,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFCABD7-0FF9-4F1B-8558-2B491F90B8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="169">
   <si>
     <t>browser</t>
   </si>
@@ -531,12 +530,24 @@
   </si>
   <si>
     <t>makers test</t>
+  </si>
+  <si>
+    <t>Mobile_Font_Family</t>
+  </si>
+  <si>
+    <t>Mobile_Font_Size</t>
+  </si>
+  <si>
+    <t>Mobile_Font_Weight</t>
+  </si>
+  <si>
+    <t>Verdana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -583,7 +594,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -683,6 +700,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -970,21 +988,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
@@ -995,28 +1013,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>89</v>
       </c>
@@ -1048,7 +1066,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1086,38 +1104,38 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>108</v>
       </c>
@@ -1179,7 +1197,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1247,24 +1265,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -1317,24 +1335,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1345,21 +1363,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +1388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1383,8 +1401,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1392,26 +1410,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1440,7 +1458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -1469,7 +1487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3"/>
     </row>
   </sheetData>
@@ -1479,24 +1497,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>25</v>
       </c>
@@ -1544,7 +1562,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1552,21 +1570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1594,41 +1612,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" customWidth="1"/>
     <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" customWidth="1"/>
-    <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.85546875" customWidth="1"/>
-    <col min="35" max="35" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" customWidth="1"/>
+    <col min="33" max="33" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.88671875" customWidth="1"/>
+    <col min="35" max="35" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1738,7 +1756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1832,10 +1850,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="X2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="L2" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="U2" r:id="rId2"/>
+    <hyperlink ref="X2" r:id="rId3"/>
+    <hyperlink ref="L2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -1843,27 +1861,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1892,7 +1910,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>155</v>
       </c>
@@ -1927,23 +1945,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>85</v>
       </c>
@@ -1953,14 +1974,23 @@
       <c r="C1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>25</v>
       </c>
@@ -1972,6 +2002,15 @@
       </c>
       <c r="D2" t="s">
         <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="CompanySetting" sheetId="10" r:id="rId10"/>
     <sheet name="IdCardSettings" sheetId="12" r:id="rId11"/>
     <sheet name="ManageCategory" sheetId="13" r:id="rId12"/>
+    <sheet name="ManageLinks" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="197">
   <si>
     <t>browser</t>
   </si>
@@ -542,6 +543,90 @@
   </si>
   <si>
     <t>Verdana</t>
+  </si>
+  <si>
+    <t>Link_Type</t>
+  </si>
+  <si>
+    <t>Link_Tab_Company</t>
+  </si>
+  <si>
+    <t>Tab_Name</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>Edit_Link_Tab</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>AddLink_Company</t>
+  </si>
+  <si>
+    <t>AddLink_Tab</t>
+  </si>
+  <si>
+    <t>AddLink_Title</t>
+  </si>
+  <si>
+    <t>Add_Link</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Testing123</t>
+  </si>
+  <si>
+    <t>https://futuresoftindia.com/careers/</t>
+  </si>
+  <si>
+    <t>Website Links</t>
+  </si>
+  <si>
+    <t>https://futuresoftindia.com/careers/23</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>EditLink_Search</t>
+  </si>
+  <si>
+    <t>EditLink_Company</t>
+  </si>
+  <si>
+    <t>EditLink_LinkTab</t>
+  </si>
+  <si>
+    <t>EditLink_Title</t>
+  </si>
+  <si>
+    <t>EditLink_Link</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>Website Links (website)</t>
+  </si>
+  <si>
+    <t>Enable/Disable_Search</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>DeleteLink_Search</t>
   </si>
 </sst>
 </file>
@@ -551,7 +636,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,8 +678,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +732,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5D5D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -694,13 +816,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -710,8 +840,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5D5D"/>
       <color rgb="FFFF9393"/>
-      <color rgb="FFFF5D5D"/>
       <color rgb="FFFF0066"/>
     </mruColors>
   </colors>
@@ -1016,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,66 +1165,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1107,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,126 +1266,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="28" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1268,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,54 +1413,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1367,7 +1638,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,19 +2037,19 @@
       <c r="C2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>200</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>146</v>
       </c>
       <c r="I2" t="s">
@@ -1891,10 +2162,10 @@
       <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>157</v>
       </c>
       <c r="F1" s="19" t="s">
@@ -1911,7 +2182,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1926,10 +2197,10 @@
       <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>64</v>
       </c>
       <c r="H2">
@@ -1948,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1965,53 +2236,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>21</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>600</v>
       </c>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="IdCardSettings" sheetId="12" r:id="rId11"/>
     <sheet name="ManageCategory" sheetId="13" r:id="rId12"/>
     <sheet name="ManageLinks" sheetId="14" r:id="rId13"/>
+    <sheet name="ManageDivision" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="208">
   <si>
     <t>browser</t>
   </si>
@@ -627,6 +628,39 @@
   </si>
   <si>
     <t>DeleteLink_Search</t>
+  </si>
+  <si>
+    <t>AddDivision_Company</t>
+  </si>
+  <si>
+    <t>AddDivision_Division</t>
+  </si>
+  <si>
+    <t>AddDivision_ShowContact</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>AddDivision_AreaCode</t>
+  </si>
+  <si>
+    <t>AddDivision_Landline</t>
+  </si>
+  <si>
+    <t>AddDivision_EnquiryFormLink</t>
+  </si>
+  <si>
+    <t>AddDivision_ShowProfilePic</t>
+  </si>
+  <si>
+    <t>AddDivision_ShowAboutUS</t>
+  </si>
+  <si>
+    <t>AddDivision_HideSearch</t>
+  </si>
+  <si>
+    <t>https://testc.om</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,6 +1636,93 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>998448983</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F08BB-CE6E-42C2-9A19-A7789C3DA490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -666,7 +667,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -827,7 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -856,7 +857,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1152,21 +1152,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
@@ -1177,28 +1177,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
@@ -1268,38 +1268,38 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -1339,29 +1339,29 @@
       <c r="M1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
@@ -1429,24 +1429,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>131</v>
       </c>
@@ -1499,33 +1499,33 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>170</v>
       </c>
@@ -1538,45 +1538,45 @@
       <c r="D1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1585,10 +1585,10 @@
       <c r="C2" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
       <c r="F2" t="s">
@@ -1621,18 +1621,18 @@
       <c r="O2" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1640,27 +1640,27 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>197</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -1720,31 +1720,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1755,21 +1755,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1793,8 +1793,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1802,26 +1802,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3"/>
     </row>
   </sheetData>
@@ -1889,24 +1889,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>25</v>
       </c>
@@ -1954,7 +1954,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1962,21 +1962,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2004,41 +2004,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" customWidth="1"/>
-    <col min="23" max="23" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" customWidth="1"/>
     <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.44140625" customWidth="1"/>
-    <col min="33" max="33" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.88671875" customWidth="1"/>
-    <col min="35" max="35" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" customWidth="1"/>
+    <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.85546875" customWidth="1"/>
+    <col min="35" max="35" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2242,10 +2242,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="U2" r:id="rId2"/>
-    <hyperlink ref="X2" r:id="rId3"/>
-    <hyperlink ref="L2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="X2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="L2" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2253,27 +2253,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>155</v>
       </c>
@@ -2337,26 +2337,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -2366,23 +2366,23 @@
       <c r="C1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>167</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>25</v>
       </c>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F08BB-CE6E-42C2-9A19-A7789C3DA490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9836B-2466-4B4C-B245-22376FDDA397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="213">
   <si>
     <t>browser</t>
   </si>
@@ -55,9 +55,6 @@
     <t>princes@futuresoftindia.com</t>
   </si>
   <si>
-    <t>Password@123</t>
-  </si>
-  <si>
     <t>FutureSoft India Pvt. Ltd</t>
   </si>
   <si>
@@ -427,9 +424,6 @@
     <t>Add_About_Us_Description</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -662,6 +656,27 @@
   </si>
   <si>
     <t>https://testc.om</t>
+  </si>
+  <si>
+    <t>CustomRange</t>
+  </si>
+  <si>
+    <t>12-Sep-2023</t>
+  </si>
+  <si>
+    <t>20-Oct-2023</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>Docasap123#</t>
+  </si>
+  <si>
+    <t>custom date</t>
   </si>
 </sst>
 </file>
@@ -671,7 +686,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +746,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -828,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -865,6 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1168,7 +1190,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1200,66 +1222,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1301,126 +1323,126 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1448,48 +1470,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1527,107 +1549,107 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>171</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>179</v>
-      </c>
       <c r="I1" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>190</v>
-      </c>
       <c r="N1" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="33" t="s">
         <v>194</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="C2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>175</v>
-      </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>193</v>
-      </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1643,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,42 +1684,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -1706,16 +1728,16 @@
         <v>998448983</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
         <v>96</v>
-      </c>
-      <c r="I2" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1768,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1781,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,110 +1799,116 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>64</v>
+      <c r="G2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3"/>
+        <v>208</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1893,7 +1921,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,25 +1936,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1934,13 +1962,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="11">
         <v>45155</v>
@@ -1978,21 +2006,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4">
         <v>2000</v>
@@ -2040,177 +2068,177 @@
   <sheetData>
     <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="20">
         <v>200</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="M2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" t="s">
         <v>147</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>148</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>149</v>
       </c>
-      <c r="O2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P2" t="s">
-        <v>151</v>
-      </c>
       <c r="Q2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R2">
         <v>201301</v>
       </c>
       <c r="S2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T2">
         <v>10</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V2">
         <v>12312</v>
@@ -2219,25 +2247,25 @@
         <v>82817387</v>
       </c>
       <c r="X2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AF2" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>78</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2275,60 +2303,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>161</v>
-      </c>
       <c r="I1" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2386,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>87</v>
-      </c>
       <c r="E1" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>167</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2387,16 +2415,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F2" s="4">
         <v>21</v>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9836B-2466-4B4C-B245-22376FDDA397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C90BB1-3A14-4473-94F2-FC0DA1292246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="228">
   <si>
     <t>browser</t>
   </si>
@@ -677,6 +677,51 @@
   </si>
   <si>
     <t>custom date</t>
+  </si>
+  <si>
+    <t>Edit_Division</t>
+  </si>
+  <si>
+    <t>div2</t>
+  </si>
+  <si>
+    <t>EditDivision_Company</t>
+  </si>
+  <si>
+    <t>EditDivision_ShowContact</t>
+  </si>
+  <si>
+    <t>EditDivision_AreaCode</t>
+  </si>
+  <si>
+    <t>EditDivision_Landline</t>
+  </si>
+  <si>
+    <t>EditDivision_EnquiryFormLink</t>
+  </si>
+  <si>
+    <t>EditDivision_ShowProfilePic</t>
+  </si>
+  <si>
+    <t>EditDivision_ShowAboutUS</t>
+  </si>
+  <si>
+    <t>EditDivision_HideSearch</t>
+  </si>
+  <si>
+    <t>H &amp; R Johnson (India)</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>EditDivision_Division</t>
+  </si>
+  <si>
+    <t>tes.com</t>
+  </si>
+  <si>
+    <t>Map_Division</t>
   </si>
 </sst>
 </file>
@@ -849,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -887,6 +932,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1663,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,67 +1726,141 @@
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="J1" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>998448983</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>96</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="4">
+        <v>993</v>
+      </c>
+      <c r="O2" s="4">
+        <v>930493422</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C90BB1-3A14-4473-94F2-FC0DA1292246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="247">
   <si>
     <t>browser</t>
   </si>
@@ -634,9 +633,6 @@
     <t>AddDivision_ShowContact</t>
   </si>
   <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>AddDivision_AreaCode</t>
   </si>
   <si>
@@ -670,9 +666,6 @@
     <t>japanese</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
     <t>Docasap123#</t>
   </si>
   <si>
@@ -712,9 +705,6 @@
     <t>H &amp; R Johnson (India)</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>EditDivision_Division</t>
   </si>
   <si>
@@ -722,12 +712,78 @@
   </si>
   <si>
     <t>Map_Division</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>New2</t>
+  </si>
+  <si>
+    <t>Current Openings==&gt;Business Analyst</t>
+  </si>
+  <si>
+    <t>paris</t>
+  </si>
+  <si>
+    <t>Product==&gt;iAugment - वर्चुअल शोरूम</t>
+  </si>
+  <si>
+    <t>Product==&gt;Trumplify - Digital Catalogue</t>
+  </si>
+  <si>
+    <t>Services==&gt;Talent &amp; Staffing</t>
+  </si>
+  <si>
+    <t>Map_Categories</t>
+  </si>
+  <si>
+    <t>UnMap_Categories</t>
+  </si>
+  <si>
+    <t>Search_MapCategories</t>
+  </si>
+  <si>
+    <t>Search_UnMapCategories</t>
+  </si>
+  <si>
+    <t>Map_Link</t>
+  </si>
+  <si>
+    <t>Search_MapLink</t>
+  </si>
+  <si>
+    <t>UnMap_Link</t>
+  </si>
+  <si>
+    <t>Search_UnMapLink</t>
+  </si>
+  <si>
+    <t>website =&gt; Website Links =&gt; प्रौद्योगिकी ढेर</t>
+  </si>
+  <si>
+    <t>video =&gt; Corporate Video =&gt; LivingApps – Sustaining your digital investments in Applications</t>
+  </si>
+  <si>
+    <t>website =&gt; Website Links =&gt; Magento E-Commerce</t>
+  </si>
+  <si>
+    <t>Search_MapCategories_Division</t>
+  </si>
+  <si>
+    <t>Search_UnMapCategories_Division</t>
+  </si>
+  <si>
+    <t>Search_MapLink_Division</t>
+  </si>
+  <si>
+    <t>Search_UnMapLink_Division</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -799,7 +855,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +910,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -894,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -935,7 +997,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1223,23 +1300,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1248,28 +1325,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1301,7 +1378,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -1339,38 +1416,38 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -1432,7 +1509,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>78</v>
       </c>
@@ -1500,24 +1577,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -1540,7 +1617,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
@@ -1570,33 +1647,33 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>168</v>
       </c>
@@ -1646,7 +1723,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1696,14 +1773,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1711,38 +1788,49 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30" style="40" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34" style="40" customWidth="1"/>
+    <col min="25" max="26" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
@@ -1753,63 +1841,99 @@
         <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="J1" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="M1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="R1" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T1" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="V1" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="W1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y1" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA1" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB1" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE1" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF1" s="42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>96</v>
@@ -1821,7 +1945,7 @@
         <v>998448983</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>78</v>
@@ -1833,13 +1957,13 @@
         <v>96</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>96</v>
@@ -1851,7 +1975,7 @@
         <v>930493422</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>48</v>
@@ -1862,34 +1986,100 @@
       <c r="S2" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="T2" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="V2" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="X2" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y2" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z2" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB2" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC2" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD2" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE2" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF2" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="72" x14ac:dyDescent="0.3">
+      <c r="V3" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="X3" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB3" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE3" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V4" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB4" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="V5" s="40" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1900,21 +2090,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1925,12 +2115,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1938,7 +2128,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1946,32 +2136,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>60</v>
@@ -1998,12 +2188,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>51</v>
@@ -2018,19 +2208,19 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3"/>
     </row>
   </sheetData>
@@ -2040,24 +2230,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2080,7 +2270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>25</v>
       </c>
@@ -2105,7 +2295,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2113,21 +2303,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -2155,41 +2345,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" customWidth="1"/>
     <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" customWidth="1"/>
-    <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.85546875" customWidth="1"/>
-    <col min="35" max="35" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" customWidth="1"/>
+    <col min="33" max="33" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.88671875" customWidth="1"/>
+    <col min="35" max="35" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2489,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2393,10 +2583,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="X2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="L2" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="U2" r:id="rId2"/>
+    <hyperlink ref="X2" r:id="rId3"/>
+    <hyperlink ref="L2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2404,27 +2594,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -2453,7 +2643,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>153</v>
       </c>
@@ -2488,26 +2678,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2533,7 +2723,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>25</v>
       </c>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00E80F7-B75C-4805-A8A3-12332C47A59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -26,6 +27,7 @@
     <sheet name="ManageCategory" sheetId="13" r:id="rId12"/>
     <sheet name="ManageLinks" sheetId="14" r:id="rId13"/>
     <sheet name="ManageDivision" sheetId="15" r:id="rId14"/>
+    <sheet name="ManageTemplate" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="261">
   <si>
     <t>browser</t>
   </si>
@@ -778,12 +780,54 @@
   </si>
   <si>
     <t>Search_UnMapLink_Division</t>
+  </si>
+  <si>
+    <t>Delete_Division</t>
+  </si>
+  <si>
+    <t>PAVAN</t>
+  </si>
+  <si>
+    <t>AddTemplate_Company</t>
+  </si>
+  <si>
+    <t>Cyber world new</t>
+  </si>
+  <si>
+    <t>AddTemplate_Division</t>
+  </si>
+  <si>
+    <t>AddTemplate_Template</t>
+  </si>
+  <si>
+    <t>Product management</t>
+  </si>
+  <si>
+    <t>Temporary</t>
+  </si>
+  <si>
+    <t>AddTemplate_Description</t>
+  </si>
+  <si>
+    <t>testing description</t>
+  </si>
+  <si>
+    <t>AddTemplate_AllowBusinessCard</t>
+  </si>
+  <si>
+    <t>AddTemplate_AllowIDCard</t>
+  </si>
+  <si>
+    <t>Edit_Template</t>
+  </si>
+  <si>
+    <t>Delhi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -855,7 +899,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -916,6 +960,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -956,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -996,23 +1052,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1300,21 +1352,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>225</v>
       </c>
@@ -1325,28 +1377,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1378,7 +1430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -1416,38 +1468,38 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -1509,7 +1561,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>78</v>
       </c>
@@ -1577,24 +1629,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -1617,7 +1669,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
@@ -1647,33 +1699,33 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>168</v>
       </c>
@@ -1723,7 +1775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1773,14 +1825,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1788,49 +1840,50 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30" style="40" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34" style="40" customWidth="1"/>
-    <col min="25" max="26" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34" customWidth="1"/>
+    <col min="25" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
@@ -1888,47 +1941,50 @@
       <c r="S1" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Y1" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Z1" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AA1" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AB1" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="AC1" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AD1" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AE1" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="39" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="AG1" s="42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
@@ -1965,7 +2021,7 @@
       <c r="L2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="4" t="s">
         <v>96</v>
       </c>
       <c r="N2" s="4">
@@ -1986,100 +2042,173 @@
       <c r="S2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" t="s">
         <v>227</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="X2" t="s">
         <v>229</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" t="s">
         <v>229</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" t="s">
         <v>227</v>
       </c>
-      <c r="AA2" s="47" t="s">
+      <c r="AA2" t="s">
         <v>228</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AB2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="AC2" s="45" t="s">
+      <c r="AC2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AD2" s="45" t="s">
+      <c r="AD2" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AE2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AF2" s="41" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" ht="72" x14ac:dyDescent="0.3">
-      <c r="V3" s="40" t="s">
+      <c r="AG2" s="41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
         <v>229</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="X3" t="s">
         <v>230</v>
       </c>
-      <c r="AB3" s="45" t="s">
+      <c r="AB3" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AE3" s="45" t="s">
+      <c r="AE3" s="41" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="V4" s="40" t="s">
+    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
         <v>230</v>
       </c>
-      <c r="AB4" s="45" t="s">
+      <c r="AB4" s="41" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="V5" s="40" t="s">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D5EAB8-AA0A-40C6-9FF1-D1829BA5A52E}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -2090,21 +2219,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2115,7 +2244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2128,7 +2257,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2136,27 +2265,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -2188,7 +2317,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>45</v>
       </c>
@@ -2220,7 +2349,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3"/>
     </row>
   </sheetData>
@@ -2230,24 +2359,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>25</v>
       </c>
@@ -2295,7 +2424,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2303,21 +2432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2328,7 +2457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -2345,41 +2474,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" customWidth="1"/>
-    <col min="23" max="23" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" customWidth="1"/>
     <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.44140625" customWidth="1"/>
-    <col min="33" max="33" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.88671875" customWidth="1"/>
-    <col min="35" max="35" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" customWidth="1"/>
+    <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.85546875" customWidth="1"/>
+    <col min="35" max="35" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2489,7 +2618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2583,10 +2712,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="U2" r:id="rId2"/>
-    <hyperlink ref="X2" r:id="rId3"/>
-    <hyperlink ref="L2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="X2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="L2" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2594,27 +2723,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -2643,7 +2772,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>153</v>
       </c>
@@ -2678,26 +2807,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2723,7 +2852,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>25</v>
       </c>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00E80F7-B75C-4805-A8A3-12332C47A59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868AA1C4-78A4-4873-A162-176C0F58F2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
     <sheet name="URL" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
-    <sheet name="CreateLicensee" sheetId="5" r:id="rId5"/>
-    <sheet name="ManageLicensee" sheetId="6" r:id="rId6"/>
-    <sheet name="CreateCompany" sheetId="7" r:id="rId7"/>
-    <sheet name="ManageCompanySetting" sheetId="8" r:id="rId8"/>
-    <sheet name="ManageCompany" sheetId="9" r:id="rId9"/>
-    <sheet name="CompanySetting" sheetId="10" r:id="rId10"/>
-    <sheet name="IdCardSettings" sheetId="12" r:id="rId11"/>
-    <sheet name="ManageCategory" sheetId="13" r:id="rId12"/>
-    <sheet name="ManageLinks" sheetId="14" r:id="rId13"/>
-    <sheet name="ManageDivision" sheetId="15" r:id="rId14"/>
-    <sheet name="ManageTemplate" sheetId="16" r:id="rId15"/>
+    <sheet name="ManageLicensee" sheetId="5" r:id="rId5"/>
+    <sheet name="CreateCompany" sheetId="7" r:id="rId6"/>
+    <sheet name="ManageCompanySetting" sheetId="8" r:id="rId7"/>
+    <sheet name="ManageCompany" sheetId="9" r:id="rId8"/>
+    <sheet name="CompanySetting" sheetId="10" r:id="rId9"/>
+    <sheet name="IdCardSettings" sheetId="12" r:id="rId10"/>
+    <sheet name="ManageCategory" sheetId="13" r:id="rId11"/>
+    <sheet name="ManageLinks" sheetId="14" r:id="rId12"/>
+    <sheet name="ManageDivision" sheetId="15" r:id="rId13"/>
+    <sheet name="ManageTemplate" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="305">
   <si>
     <t>browser</t>
   </si>
@@ -822,6 +821,138 @@
   </si>
   <si>
     <t>Delhi</t>
+  </si>
+  <si>
+    <t>EditTemplate_Company</t>
+  </si>
+  <si>
+    <t>Browser Name</t>
+  </si>
+  <si>
+    <t>URL to be Re-Directed</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Select Default company</t>
+  </si>
+  <si>
+    <t>Add Template</t>
+  </si>
+  <si>
+    <t>Edit Template</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Create Licensee</t>
+  </si>
+  <si>
+    <t>Validate Licensee</t>
+  </si>
+  <si>
+    <t>Create Company</t>
+  </si>
+  <si>
+    <t>Manage Company Setting</t>
+  </si>
+  <si>
+    <t>Manage Company</t>
+  </si>
+  <si>
+    <t>Settings in Manage Company</t>
+  </si>
+  <si>
+    <t>Employee ID Card Settings Front side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee ID Card settings , Back Side </t>
+  </si>
+  <si>
+    <t>Manage Category</t>
+  </si>
+  <si>
+    <t>Edit Link in Manage Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabl/Disable in Manage Links </t>
+  </si>
+  <si>
+    <t>Delete Link</t>
+  </si>
+  <si>
+    <t>Add Links in Manage Links</t>
+  </si>
+  <si>
+    <t>Validate Manage Links</t>
+  </si>
+  <si>
+    <t>Add Division</t>
+  </si>
+  <si>
+    <t>Edit Division</t>
+  </si>
+  <si>
+    <t>Map Division</t>
+  </si>
+  <si>
+    <t>Delete Division</t>
+  </si>
+  <si>
+    <t>EditTemplate_Division</t>
+  </si>
+  <si>
+    <t>New Company</t>
+  </si>
+  <si>
+    <t>FS Noida</t>
+  </si>
+  <si>
+    <t>NewTemplate_Name</t>
+  </si>
+  <si>
+    <t>Edit_TemplateDescription</t>
+  </si>
+  <si>
+    <t>Nescafe</t>
+  </si>
+  <si>
+    <t>New Nescafe</t>
+  </si>
+  <si>
+    <t>EditTemplate_AllowBusinessCard</t>
+  </si>
+  <si>
+    <t>EditTemplate_AllowIDCard</t>
+  </si>
+  <si>
+    <t>Template_MapCategory</t>
+  </si>
+  <si>
+    <t>Template_SearchMapCategory</t>
+  </si>
+  <si>
+    <t>Pavan1</t>
+  </si>
+  <si>
+    <t>Template_UnMapCategory</t>
+  </si>
+  <si>
+    <t>Dot Net Induction==&gt;Shopify eCommerce</t>
+  </si>
+  <si>
+    <t>Product==&gt;iEdge - डिजिटल बिजनेस कार्ड</t>
+  </si>
+  <si>
+    <t>Solutions==&gt;iPhygital</t>
+  </si>
+  <si>
+    <t>Solutions==&gt;Telecom Solutions</t>
+  </si>
+  <si>
+    <t>Template map Categpory</t>
   </si>
 </sst>
 </file>
@@ -831,7 +962,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,8 +1029,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,8 +1110,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -997,14 +1165,36 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1012,11 +1202,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1031,40 +1220,76 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1074,8 +1299,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9393"/>
       <color rgb="FFFF5D5D"/>
-      <color rgb="FFFF9393"/>
       <color rgb="FFFF0066"/>
     </mruColors>
   </colors>
@@ -1353,21 +1578,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1377,102 +1610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,140 +1642,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q2" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S2" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T2" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,63 +1819,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,130 +1907,164 @@
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F2" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G2" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H2" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N2" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O2" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P2" s="41" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D3" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P3" s="43" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +2095,7 @@
     <col min="24" max="24" width="34" customWidth="1"/>
     <col min="25" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
@@ -1884,248 +2104,356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J2" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K2" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L2" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M2" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N2" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O2" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P2" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q2" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R2" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S2" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T2" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U2" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V2" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W2" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X2" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y2" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z2" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AA2" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AB2" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AC2" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AD2" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AE2" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AF2" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AG2" s="47" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="3" spans="1:33" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="3">
         <v>20</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="3">
         <v>998448983</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N3" s="3">
         <v>993</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O3" s="3">
         <v>930493422</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB3" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC3" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD3" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE3" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF3" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="AG2" s="41" t="s">
+      <c r="AG3" s="48" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="75" x14ac:dyDescent="0.25">
-      <c r="V3" t="s">
+    <row r="4" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="AB3" s="41" t="s">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="48" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="V4" t="s">
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="AB4" s="41" t="s">
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="48" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="V5" t="s">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D5EAB8-AA0A-40C6-9FF1-D1829BA5A52E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,65 +2465,183 @@
     <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B2" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C2" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D2" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E2" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G2" s="40" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="H2" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="3" t="s">
         <v>260</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="3"/>
+      <c r="O5" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+      <c r="O6" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G12" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,12 +2650,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2220,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,30 +2685,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2266,17 +2729,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
@@ -2286,73 +2749,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J2" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I3" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J3" s="30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2360,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,57 +2854,98 @@
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E3" s="10">
         <v>45155</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F3" s="10">
         <v>45186</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
+      <c r="H3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2432,53 +2953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AJ2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,226 +2987,269 @@
     <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:36" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+    </row>
+    <row r="2" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E3" s="15">
         <v>200</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F3" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G3" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>83</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>78</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>146</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>147</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O3" t="s">
         <v>148</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P3" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" t="s">
         <v>147</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>201301</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S3" t="s">
         <v>151</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>10</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>12312</v>
       </c>
-      <c r="W2">
+      <c r="W3">
         <v>82817387</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y3" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF3" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG3" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH3" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI3" t="s">
         <v>77</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ3" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:AJ1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="X2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="L2" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="U3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="X3" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,78 +3262,94 @@
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E2" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I2" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F3" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G3" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="3">
         <v>200</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="3" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,56 +3365,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E2" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F2" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G2" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F3" s="3">
         <v>21</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G3" s="3">
         <v>600</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868AA1C4-78A4-4873-A162-176C0F58F2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586E954B-9E2E-4739-B44B-F4B33F0974A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="310">
   <si>
     <t>browser</t>
   </si>
@@ -953,6 +953,21 @@
   </si>
   <si>
     <t>Template map Categpory</t>
+  </si>
+  <si>
+    <t>17-08-2022</t>
+  </si>
+  <si>
+    <t>Edit_LicenseeName</t>
+  </si>
+  <si>
+    <t>Edit_NoOfCards</t>
+  </si>
+  <si>
+    <t>17-09-2024</t>
+  </si>
+  <si>
+    <t>TemplateMapCategory_Search</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1197,12 +1212,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1213,7 +1272,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1233,49 +1291,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1284,12 +1309,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1590,7 +1663,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>262</v>
       </c>
     </row>
@@ -1642,30 +1715,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="25" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1707,25 +1780,25 @@
       <c r="M2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1819,15 +1892,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1912,29 +1985,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="35" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="25" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="25"/>
+      <c r="O1" s="41"/>
       <c r="P1" s="9" t="s">
         <v>280</v>
       </c>
@@ -1952,16 +2025,16 @@
       <c r="D2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>177</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -1979,13 +2052,13 @@
       <c r="M2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="30" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1999,7 +2072,7 @@
       <c r="C3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="31" t="s">
         <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2017,7 +2090,7 @@
       <c r="I3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -2035,7 +2108,7 @@
       <c r="O3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="32" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2095,7 +2168,7 @@
     <col min="24" max="24" width="34" customWidth="1"/>
     <col min="25" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
@@ -2104,44 +2177,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="25" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="44" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
       <c r="AG1" s="9" t="s">
         <v>286</v>
       </c>
@@ -2174,81 +2247,81 @@
       <c r="I2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="W2" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="X2" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="Y2" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="AB2" s="46" t="s">
+      <c r="AB2" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="AC2" s="45" t="s">
+      <c r="AC2" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="AD2" s="45" t="s">
+      <c r="AD2" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AE2" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AF2" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="AG2" s="47" t="s">
+      <c r="AG2" s="35" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2329,22 +2402,22 @@
       <c r="AA3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="AB3" s="48" t="s">
+      <c r="AB3" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AC3" s="48" t="s">
+      <c r="AC3" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="AD3" s="48" t="s">
+      <c r="AD3" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="AE3" s="48" t="s">
+      <c r="AE3" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="AF3" s="48" t="s">
+      <c r="AF3" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AG3" s="48" t="s">
+      <c r="AG3" s="36" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2380,12 +2453,12 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="48" t="s">
+      <c r="AB4" s="36" t="s">
         <v>241</v>
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="48" t="s">
+      <c r="AE4" s="36" t="s">
         <v>242</v>
       </c>
       <c r="AF4" s="3"/>
@@ -2421,7 +2494,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="48" t="s">
+      <c r="AB5" s="36" t="s">
         <v>242</v>
       </c>
       <c r="AC5" s="3"/>
@@ -2450,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D5EAB8-AA0A-40C6-9FF1-D1829BA5A52E}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,70 +2546,72 @@
     <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="38" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="37" t="s">
         <v>295</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -2548,8 +2623,11 @@
       <c r="P2" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>250</v>
       </c>
@@ -2574,7 +2652,7 @@
       <c r="H3" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="3" t="s">
         <v>289</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -2586,51 +2664,54 @@
       <c r="L3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="38" t="s">
         <v>96</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="25" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="Q3" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="25" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N5" s="3"/>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="25" t="s">
         <v>302</v>
       </c>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N6" s="3"/>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="25" t="s">
         <v>303</v>
       </c>
       <c r="P6" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G12" s="23"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2650,7 +2731,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2685,10 +2766,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="5" t="s">
         <v>265</v>
       </c>
@@ -2749,18 +2830,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2795,16 +2876,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2819,10 +2900,10 @@
       <c r="H3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="26" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2843,7 +2924,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,24 +2937,24 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2898,13 +2979,13 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>306</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2920,14 +3001,14 @@
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10">
-        <v>45155</v>
-      </c>
-      <c r="F3" s="10">
-        <v>45186</v>
+      <c r="E3" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>308</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
@@ -2988,44 +3069,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
     </row>
     <row r="2" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3055,7 +3136,7 @@
       <c r="I2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3073,7 +3154,7 @@
       <c r="O2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -3097,7 +3178,7 @@
       <c r="W2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="11" t="s">
         <v>31</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -3127,13 +3208,13 @@
       <c r="AG2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3144,22 +3225,22 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>200</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>144</v>
       </c>
       <c r="I3" t="s">
@@ -3171,7 +3252,7 @@
       <c r="K3" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>145</v>
       </c>
       <c r="M3" t="s">
@@ -3198,7 +3279,7 @@
       <c r="T3">
         <v>10</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V3">
@@ -3207,7 +3288,7 @@
       <c r="W3">
         <v>82817387</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="12" t="s">
         <v>72</v>
       </c>
       <c r="Y3" t="s">
@@ -3266,17 +3347,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3288,10 +3369,10 @@
       <c r="C2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3308,7 +3389,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="27" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3323,10 +3404,10 @@
       <c r="E3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="28" t="s">
         <v>63</v>
       </c>
       <c r="H3" s="3">
@@ -3365,16 +3446,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3386,16 +3467,16 @@
       <c r="C2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>165</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -3457,18 +3538,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586E954B-9E2E-4739-B44B-F4B33F0974A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E0BD65-F2F6-4BFD-B9CC-054FD0392294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="ManageLinks" sheetId="14" r:id="rId12"/>
     <sheet name="ManageDivision" sheetId="15" r:id="rId13"/>
     <sheet name="ManageTemplate" sheetId="16" r:id="rId14"/>
+    <sheet name="ManageDepartment" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="323">
   <si>
     <t>browser</t>
   </si>
@@ -940,18 +941,9 @@
     <t>Template_UnMapCategory</t>
   </si>
   <si>
-    <t>Dot Net Induction==&gt;Shopify eCommerce</t>
-  </si>
-  <si>
     <t>Product==&gt;iEdge - डिजिटल बिजनेस कार्ड</t>
   </si>
   <si>
-    <t>Solutions==&gt;iPhygital</t>
-  </si>
-  <si>
-    <t>Solutions==&gt;Telecom Solutions</t>
-  </si>
-  <si>
     <t>Template map Categpory</t>
   </si>
   <si>
@@ -968,6 +960,54 @@
   </si>
   <si>
     <t>TemplateMapCategory_Search</t>
+  </si>
+  <si>
+    <t>Solutions==&gt;Workforce Management</t>
+  </si>
+  <si>
+    <t>Solutions==&gt;Financial Solutions</t>
+  </si>
+  <si>
+    <t>Solutions==&gt;Social Media Marketing</t>
+  </si>
+  <si>
+    <t>TemplateUnMapCategory_Search</t>
+  </si>
+  <si>
+    <t>TemplateSearch_Links</t>
+  </si>
+  <si>
+    <t>Template_MapLink</t>
+  </si>
+  <si>
+    <t>Template_UnMapLink</t>
+  </si>
+  <si>
+    <t>Template_UnmappedSearch</t>
+  </si>
+  <si>
+    <t>Template_MappedSearch</t>
+  </si>
+  <si>
+    <t>Template Map Links</t>
+  </si>
+  <si>
+    <t>website =&gt; Website Links =&gt; iEdge - Digital Business Cards</t>
+  </si>
+  <si>
+    <t>website =&gt; Website Links =&gt; Career</t>
+  </si>
+  <si>
+    <t>video =&gt; Corporate Video =&gt; MAKERS</t>
+  </si>
+  <si>
+    <t>Add Department</t>
+  </si>
+  <si>
+    <t>Quantum</t>
+  </si>
+  <si>
+    <t>Department_Name</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1236,32 +1276,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1317,6 +1337,15 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1347,20 +1376,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1715,30 +1739,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="41" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1892,15 +1916,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1985,29 +2009,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="44" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="41" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="41"/>
+      <c r="O1" s="44"/>
       <c r="P1" s="9" t="s">
         <v>280</v>
       </c>
@@ -2136,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,58 +2187,58 @@
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="34" customWidth="1"/>
     <col min="25" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="29.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5703125" customWidth="1"/>
     <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.140625" customWidth="1"/>
+    <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="41" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="48" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
       <c r="AG1" s="9" t="s">
         <v>286</v>
       </c>
@@ -2320,7 +2344,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -2421,7 +2445,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2504,7 +2528,7 @@
       <c r="AG5" s="3"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="V6" t="s">
+      <c r="V6" s="3" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2523,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D5EAB8-AA0A-40C6-9FF1-D1829BA5A52E}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,11 +2569,16 @@
     <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.85546875" style="20" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>266</v>
       </c>
@@ -2558,23 +2587,31 @@
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>249</v>
       </c>
@@ -2623,11 +2660,29 @@
       <c r="P2" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="Q2" s="54" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>250</v>
       </c>
@@ -2671,47 +2726,147 @@
         <v>298</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="V3" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="W3" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="N4" s="3"/>
       <c r="O4" s="25" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="U4" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" ht="24.75" x14ac:dyDescent="0.25">
       <c r="N5" s="3"/>
       <c r="O5" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="U5" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" ht="24.75" x14ac:dyDescent="0.25">
       <c r="N6" s="3"/>
       <c r="O6" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="U6" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G12" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A9E4A-DE03-4053-A3E4-63CDBF3D24E3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="58"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2941,20 +3096,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="41" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2979,13 +3134,13 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3002,10 +3157,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>305</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>308</v>
       </c>
       <c r="G3" s="3">
         <v>50</v>
@@ -3069,44 +3224,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
     </row>
     <row r="2" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3347,17 +3502,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3446,16 +3601,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3538,18 +3693,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\IEdge\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E0BD65-F2F6-4BFD-B9CC-054FD0392294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Browser" sheetId="1" r:id="rId1"/>
@@ -28,6 +27,7 @@
     <sheet name="ManageDivision" sheetId="15" r:id="rId13"/>
     <sheet name="ManageTemplate" sheetId="16" r:id="rId14"/>
     <sheet name="ManageDepartment" sheetId="17" r:id="rId15"/>
+    <sheet name="ManageLocation" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="344">
   <si>
     <t>browser</t>
   </si>
@@ -1008,12 +1008,75 @@
   </si>
   <si>
     <t>Department_Name</t>
+  </si>
+  <si>
+    <t>Default_Company</t>
+  </si>
+  <si>
+    <t>Manage Department</t>
+  </si>
+  <si>
+    <t>Edit Department</t>
+  </si>
+  <si>
+    <t>EditDepartment_Search</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>New_DepartmentName</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t>Delete Department</t>
+  </si>
+  <si>
+    <t>DeleteDepartment_Search</t>
+  </si>
+  <si>
+    <t>Validate Manage Location</t>
+  </si>
+  <si>
+    <t>Add Location</t>
+  </si>
+  <si>
+    <t>Location_Name</t>
+  </si>
+  <si>
+    <t>Location_URL</t>
+  </si>
+  <si>
+    <t>Location_Address1</t>
+  </si>
+  <si>
+    <t>Location_Address2</t>
+  </si>
+  <si>
+    <t>New Location</t>
+  </si>
+  <si>
+    <t>InvalidLocation_URL</t>
+  </si>
+  <si>
+    <t>testing.com</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>address 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1092,7 +1155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1195,8 +1258,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1276,12 +1345,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1331,6 +1411,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1376,15 +1462,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1674,29 +1763,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>225</v>
       </c>
@@ -1707,64 +1796,64 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="44" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -1826,7 +1915,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1898,35 +1987,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
@@ -1949,7 +2038,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
@@ -1982,61 +2071,61 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="47" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="44" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="44"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
@@ -2086,7 +2175,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2136,7 +2225,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
         <v>183</v>
       </c>
@@ -2149,7 +2238,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2157,93 +2246,93 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="34" customWidth="1"/>
-    <col min="25" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.5703125" customWidth="1"/>
+    <col min="28" max="28" width="29.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5546875" customWidth="1"/>
     <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.140625" customWidth="1"/>
+    <col min="31" max="31" width="24.109375" customWidth="1"/>
     <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="44" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="51" t="s">
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
       <c r="AG1" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>195</v>
       </c>
@@ -2344,7 +2433,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -2445,7 +2534,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2488,7 +2577,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2527,7 +2616,7 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="V6" s="3" t="s">
         <v>231</v>
       </c>
@@ -2539,79 +2628,79 @@
     <mergeCell ref="T1:AF1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D5EAB8-AA0A-40C6-9FF1-D1829BA5A52E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" style="20" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.88671875" style="20" customWidth="1"/>
+    <col min="21" max="21" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="52" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="50" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="49" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>249</v>
       </c>
@@ -2669,7 +2758,7 @@
       <c r="S2" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="39" t="s">
         <v>312</v>
       </c>
       <c r="U2" s="5" t="s">
@@ -2682,7 +2771,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>250</v>
       </c>
@@ -2740,20 +2829,20 @@
       <c r="S3" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="T3" s="56" t="s">
+      <c r="T3" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="W3" s="56" t="s">
+      <c r="W3" s="40" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="N4" s="3"/>
       <c r="O4" s="25" t="s">
@@ -2765,16 +2854,16 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="56" t="s">
+      <c r="T4" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="40" t="s">
         <v>317</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="24.6" x14ac:dyDescent="0.3">
       <c r="N5" s="3"/>
       <c r="O5" s="25" t="s">
         <v>300</v>
@@ -2785,16 +2874,16 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="56" t="s">
+      <c r="T5" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="U5" s="56" t="s">
+      <c r="U5" s="40" t="s">
         <v>318</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="24.6" x14ac:dyDescent="0.3">
       <c r="N6" s="3"/>
       <c r="O6" s="25" t="s">
         <v>309</v>
@@ -2805,16 +2894,16 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="56" t="s">
+      <c r="T6" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="40" t="s">
         <v>319</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G12" s="22"/>
     </row>
   </sheetData>
@@ -2829,73 +2918,198 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7A9E4A-DE03-4053-A3E4-63CDBF3D24E3}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="62" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="58"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="C2" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B3" t="s">
-        <v>170</v>
+      <c r="B3" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -2906,30 +3120,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2940,7 +3154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2956,7 +3170,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2964,41 +3178,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -3030,7 +3244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
@@ -3062,7 +3276,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4"/>
     </row>
   </sheetData>
@@ -3075,43 +3289,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3143,7 +3357,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>25</v>
       </c>
@@ -3181,7 +3395,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3189,81 +3403,81 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" customWidth="1"/>
     <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" customWidth="1"/>
-    <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.85546875" customWidth="1"/>
-    <col min="35" max="35" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" customWidth="1"/>
+    <col min="33" max="33" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.88671875" customWidth="1"/>
+    <col min="35" max="35" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:36" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-    </row>
-    <row r="2" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+    </row>
+    <row r="2" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3373,7 +3587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -3470,10 +3684,10 @@
     <mergeCell ref="A1:AJ1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="U3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="X3" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="L3" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="U3" r:id="rId2"/>
+    <hyperlink ref="X3" r:id="rId3"/>
+    <hyperlink ref="L3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3481,40 +3695,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -3543,7 +3757,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>153</v>
       </c>
@@ -3581,38 +3795,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -3638,7 +3852,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>25</v>
       </c>
@@ -3671,42 +3885,42 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -3738,7 +3952,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
